--- a/arduino_ir/活頁簿1.xlsx
+++ b/arduino_ir/活頁簿1.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk693\Desktop\冷氣自動控制\arduino_ir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk693\Desktop\Git-Project\Air-conditioning-timer\arduino_ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ED4577E4-65B3-443F-884D-49D55E706BB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF45850-4323-488D-8A23-A5CC4DE8C692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4545" windowWidth="21600" windowHeight="11505" xr2:uid="{3C9E4497-2F40-4D57-84E7-85B8A6E0EFA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{3C9E4497-2F40-4D57-84E7-85B8A6E0EFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表2!$10:$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表2!$10:$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表2!$10:$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表2!$10:$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,20 +30,19 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +53,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -75,8 +90,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -94,6 +112,1473 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$A$9:$HC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>9004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-568</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-576</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-568</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-572</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1698</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-620</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1704</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-574</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-582</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-560</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-544</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1678</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-542</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-536</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-538</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-542</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-532</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-542</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-552</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-542</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-536</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-536</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-558</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-558</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-550</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-548</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-554</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1688</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-588</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-548</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-570</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1694</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-562</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-576</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-568</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-592</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-576</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1694</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-564</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1708</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-566</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA1F-424D-9C40-130754C935E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1408152624"/>
+        <c:axId val="1408155536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1408152624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408155536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1408155536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408152624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5783AC9-D54B-4B93-BAD6-6EA8C5C34A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D5BF78-EF0D-44A3-8D93-395EE610F278}">
   <dimension ref="A1:DE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -3365,4 +4850,2152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3361126C-E2FC-4B90-8E32-53D830326C9D}">
+  <dimension ref="A1:XFD9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9000</v>
+      </c>
+      <c r="B6">
+        <v>-4432</v>
+      </c>
+      <c r="C6">
+        <v>580</v>
+      </c>
+      <c r="D6">
+        <v>-1684</v>
+      </c>
+      <c r="E6">
+        <v>552</v>
+      </c>
+      <c r="F6">
+        <v>-1692</v>
+      </c>
+      <c r="G6">
+        <v>556</v>
+      </c>
+      <c r="H6">
+        <v>-552</v>
+      </c>
+      <c r="I6">
+        <v>552</v>
+      </c>
+      <c r="J6">
+        <v>-552</v>
+      </c>
+      <c r="K6">
+        <v>556</v>
+      </c>
+      <c r="L6">
+        <v>-560</v>
+      </c>
+      <c r="M6">
+        <v>544</v>
+      </c>
+      <c r="N6">
+        <v>-560</v>
+      </c>
+      <c r="O6">
+        <v>556</v>
+      </c>
+      <c r="P6">
+        <v>-1688</v>
+      </c>
+      <c r="Q6">
+        <v>552</v>
+      </c>
+      <c r="R6">
+        <v>-1684</v>
+      </c>
+      <c r="S6">
+        <v>552</v>
+      </c>
+      <c r="T6">
+        <v>-556</v>
+      </c>
+      <c r="U6">
+        <v>560</v>
+      </c>
+      <c r="V6">
+        <v>-556</v>
+      </c>
+      <c r="W6">
+        <v>552</v>
+      </c>
+      <c r="X6">
+        <v>-552</v>
+      </c>
+      <c r="Y6">
+        <v>552</v>
+      </c>
+      <c r="Z6">
+        <v>-560</v>
+      </c>
+      <c r="AA6">
+        <v>548</v>
+      </c>
+      <c r="AB6">
+        <v>-552</v>
+      </c>
+      <c r="AC6">
+        <v>552</v>
+      </c>
+      <c r="AD6">
+        <v>-560</v>
+      </c>
+      <c r="AE6">
+        <v>556</v>
+      </c>
+      <c r="AF6">
+        <v>-552</v>
+      </c>
+      <c r="AG6">
+        <v>552</v>
+      </c>
+      <c r="AH6">
+        <v>-1692</v>
+      </c>
+      <c r="AI6">
+        <v>556</v>
+      </c>
+      <c r="AJ6">
+        <v>-552</v>
+      </c>
+      <c r="AK6">
+        <v>552</v>
+      </c>
+      <c r="AL6">
+        <v>-552</v>
+      </c>
+      <c r="AM6">
+        <v>552</v>
+      </c>
+      <c r="AN6">
+        <v>-556</v>
+      </c>
+      <c r="AO6">
+        <v>552</v>
+      </c>
+      <c r="AP6">
+        <v>-556</v>
+      </c>
+      <c r="AQ6">
+        <v>560</v>
+      </c>
+      <c r="AR6">
+        <v>-568</v>
+      </c>
+      <c r="AS6">
+        <v>536</v>
+      </c>
+      <c r="AT6">
+        <v>-556</v>
+      </c>
+      <c r="AU6">
+        <v>552</v>
+      </c>
+      <c r="AV6">
+        <v>-576</v>
+      </c>
+      <c r="AW6">
+        <v>528</v>
+      </c>
+      <c r="AX6">
+        <v>-552</v>
+      </c>
+      <c r="AY6">
+        <v>564</v>
+      </c>
+      <c r="AZ6">
+        <v>-552</v>
+      </c>
+      <c r="BA6">
+        <v>552</v>
+      </c>
+      <c r="BB6">
+        <v>-552</v>
+      </c>
+      <c r="BC6">
+        <v>556</v>
+      </c>
+      <c r="BD6">
+        <v>-552</v>
+      </c>
+      <c r="BE6">
+        <v>552</v>
+      </c>
+      <c r="BF6">
+        <v>-556</v>
+      </c>
+      <c r="BG6">
+        <v>552</v>
+      </c>
+      <c r="BH6">
+        <v>-560</v>
+      </c>
+      <c r="BI6">
+        <v>552</v>
+      </c>
+      <c r="BJ6">
+        <v>-556</v>
+      </c>
+      <c r="BK6">
+        <v>552</v>
+      </c>
+      <c r="BL6">
+        <v>-552</v>
+      </c>
+      <c r="BM6">
+        <v>552</v>
+      </c>
+      <c r="BN6">
+        <v>-556</v>
+      </c>
+      <c r="BO6">
+        <v>560</v>
+      </c>
+      <c r="BP6">
+        <v>-544</v>
+      </c>
+      <c r="BQ6">
+        <v>560</v>
+      </c>
+      <c r="BR6">
+        <v>-556</v>
+      </c>
+      <c r="BS6">
+        <v>552</v>
+      </c>
+      <c r="BT6">
+        <v>-556</v>
+      </c>
+      <c r="BU6">
+        <v>552</v>
+      </c>
+      <c r="BV6">
+        <v>-552</v>
+      </c>
+      <c r="BW6">
+        <v>552</v>
+      </c>
+      <c r="BX6">
+        <v>-552</v>
+      </c>
+      <c r="BY6">
+        <v>556</v>
+      </c>
+      <c r="BZ6">
+        <v>-1688</v>
+      </c>
+      <c r="CA6">
+        <v>556</v>
+      </c>
+      <c r="CB6">
+        <v>-576</v>
+      </c>
+      <c r="CC6">
+        <v>532</v>
+      </c>
+      <c r="CD6">
+        <v>-1688</v>
+      </c>
+      <c r="CE6">
+        <v>552</v>
+      </c>
+      <c r="CF6">
+        <v>-556</v>
+      </c>
+      <c r="CG6">
+        <v>552</v>
+      </c>
+      <c r="CH6">
+        <v>-552</v>
+      </c>
+      <c r="CI6">
+        <v>560</v>
+      </c>
+      <c r="CJ6">
+        <v>-556</v>
+      </c>
+      <c r="CK6">
+        <v>552</v>
+      </c>
+      <c r="CL6">
+        <v>-552</v>
+      </c>
+      <c r="CM6">
+        <v>552</v>
+      </c>
+      <c r="CN6">
+        <v>-580</v>
+      </c>
+      <c r="CO6">
+        <v>528</v>
+      </c>
+      <c r="CP6">
+        <v>-560</v>
+      </c>
+      <c r="CQ6">
+        <v>552</v>
+      </c>
+      <c r="CR6">
+        <v>-556</v>
+      </c>
+      <c r="CS6">
+        <v>552</v>
+      </c>
+      <c r="CT6">
+        <v>-552</v>
+      </c>
+      <c r="CU6">
+        <v>556</v>
+      </c>
+      <c r="CV6">
+        <v>-552</v>
+      </c>
+      <c r="CW6">
+        <v>552</v>
+      </c>
+      <c r="CX6">
+        <v>-552</v>
+      </c>
+      <c r="CY6">
+        <v>556</v>
+      </c>
+      <c r="CZ6">
+        <v>-552</v>
+      </c>
+      <c r="DA6">
+        <v>560</v>
+      </c>
+      <c r="DB6">
+        <v>-556</v>
+      </c>
+      <c r="DC6">
+        <v>552</v>
+      </c>
+      <c r="DD6">
+        <v>-552</v>
+      </c>
+      <c r="DE6">
+        <v>552</v>
+      </c>
+      <c r="DF6">
+        <v>-1692</v>
+      </c>
+      <c r="DG6">
+        <v>552</v>
+      </c>
+      <c r="DH6">
+        <v>-556</v>
+      </c>
+      <c r="DI6">
+        <v>552</v>
+      </c>
+      <c r="DJ6">
+        <v>-552</v>
+      </c>
+      <c r="DK6">
+        <v>564</v>
+      </c>
+      <c r="DL6">
+        <v>-552</v>
+      </c>
+      <c r="DM6">
+        <v>552</v>
+      </c>
+      <c r="DN6">
+        <v>-552</v>
+      </c>
+      <c r="DO6">
+        <v>556</v>
+      </c>
+      <c r="DP6">
+        <v>-552</v>
+      </c>
+      <c r="DQ6">
+        <v>552</v>
+      </c>
+      <c r="DR6">
+        <v>-552</v>
+      </c>
+      <c r="DS6">
+        <v>556</v>
+      </c>
+      <c r="DT6">
+        <v>-552</v>
+      </c>
+      <c r="DU6">
+        <v>556</v>
+      </c>
+      <c r="DV6">
+        <v>-560</v>
+      </c>
+      <c r="DW6">
+        <v>552</v>
+      </c>
+      <c r="DX6">
+        <v>-552</v>
+      </c>
+      <c r="DY6">
+        <v>552</v>
+      </c>
+      <c r="DZ6">
+        <v>-556</v>
+      </c>
+      <c r="EA6">
+        <v>560</v>
+      </c>
+      <c r="EB6">
+        <v>-544</v>
+      </c>
+      <c r="EC6">
+        <v>560</v>
+      </c>
+      <c r="ED6">
+        <v>-556</v>
+      </c>
+      <c r="EE6">
+        <v>552</v>
+      </c>
+      <c r="EF6">
+        <v>-552</v>
+      </c>
+      <c r="EG6">
+        <v>552</v>
+      </c>
+      <c r="EH6">
+        <v>-556</v>
+      </c>
+      <c r="EI6">
+        <v>552</v>
+      </c>
+      <c r="EJ6">
+        <v>-560</v>
+      </c>
+      <c r="EK6">
+        <v>556</v>
+      </c>
+      <c r="EL6">
+        <v>-552</v>
+      </c>
+      <c r="EM6">
+        <v>552</v>
+      </c>
+      <c r="EN6">
+        <v>-552</v>
+      </c>
+      <c r="EO6">
+        <v>556</v>
+      </c>
+      <c r="EP6">
+        <v>-552</v>
+      </c>
+      <c r="EQ6">
+        <v>556</v>
+      </c>
+      <c r="ER6">
+        <v>-552</v>
+      </c>
+      <c r="ES6">
+        <v>552</v>
+      </c>
+      <c r="ET6">
+        <v>-560</v>
+      </c>
+      <c r="EU6">
+        <v>552</v>
+      </c>
+      <c r="EV6">
+        <v>-556</v>
+      </c>
+      <c r="EW6">
+        <v>552</v>
+      </c>
+      <c r="EX6">
+        <v>-552</v>
+      </c>
+      <c r="EY6">
+        <v>552</v>
+      </c>
+      <c r="EZ6">
+        <v>-556</v>
+      </c>
+      <c r="FA6">
+        <v>560</v>
+      </c>
+      <c r="FB6">
+        <v>-1684</v>
+      </c>
+      <c r="FC6">
+        <v>552</v>
+      </c>
+      <c r="FD6">
+        <v>-552</v>
+      </c>
+      <c r="FE6">
+        <v>556</v>
+      </c>
+      <c r="FF6">
+        <v>-560</v>
+      </c>
+      <c r="FG6">
+        <v>552</v>
+      </c>
+      <c r="FH6">
+        <v>-552</v>
+      </c>
+      <c r="FI6">
+        <v>556</v>
+      </c>
+      <c r="FJ6">
+        <v>-552</v>
+      </c>
+      <c r="FK6">
+        <v>552</v>
+      </c>
+      <c r="FL6">
+        <v>-556</v>
+      </c>
+      <c r="FM6">
+        <v>552</v>
+      </c>
+      <c r="FN6">
+        <v>-560</v>
+      </c>
+      <c r="FO6">
+        <v>556</v>
+      </c>
+      <c r="FP6">
+        <v>-552</v>
+      </c>
+      <c r="FQ6">
+        <v>552</v>
+      </c>
+      <c r="FR6">
+        <v>-552</v>
+      </c>
+      <c r="FS6">
+        <v>552</v>
+      </c>
+      <c r="FT6">
+        <v>-556</v>
+      </c>
+      <c r="FU6">
+        <v>560</v>
+      </c>
+      <c r="FV6">
+        <v>-544</v>
+      </c>
+      <c r="FW6">
+        <v>560</v>
+      </c>
+      <c r="FX6">
+        <v>-1684</v>
+      </c>
+      <c r="FY6">
+        <v>560</v>
+      </c>
+      <c r="FZ6">
+        <v>-552</v>
+      </c>
+      <c r="GA6">
+        <v>556</v>
+      </c>
+      <c r="GB6">
+        <v>-1688</v>
+      </c>
+      <c r="GC6">
+        <v>556</v>
+      </c>
+      <c r="GD6">
+        <v>-552</v>
+      </c>
+      <c r="GE6">
+        <v>556</v>
+      </c>
+      <c r="GF6">
+        <v>-552</v>
+      </c>
+      <c r="GG6">
+        <v>552</v>
+      </c>
+      <c r="GH6">
+        <v>-552</v>
+      </c>
+      <c r="GI6">
+        <v>552</v>
+      </c>
+      <c r="GJ6">
+        <v>-580</v>
+      </c>
+      <c r="GK6">
+        <v>536</v>
+      </c>
+      <c r="GL6">
+        <v>-556</v>
+      </c>
+      <c r="GM6">
+        <v>552</v>
+      </c>
+      <c r="GN6">
+        <v>-552</v>
+      </c>
+      <c r="GO6">
+        <v>552</v>
+      </c>
+      <c r="GP6">
+        <v>-556</v>
+      </c>
+      <c r="GQ6">
+        <v>552</v>
+      </c>
+      <c r="GR6">
+        <v>-552</v>
+      </c>
+      <c r="GS6">
+        <v>560</v>
+      </c>
+      <c r="GT6">
+        <v>-1680</v>
+      </c>
+      <c r="GU6">
+        <v>556</v>
+      </c>
+      <c r="GV6">
+        <v>-552</v>
+      </c>
+      <c r="GW6">
+        <v>556</v>
+      </c>
+      <c r="GX6">
+        <v>-1712</v>
+      </c>
+      <c r="GY6">
+        <v>532</v>
+      </c>
+      <c r="GZ6">
+        <v>-552</v>
+      </c>
+      <c r="HA6">
+        <v>556</v>
+      </c>
+      <c r="HB6">
+        <v>-552</v>
+      </c>
+      <c r="HC6">
+        <v>560</v>
+      </c>
+      <c r="XFD6">
+        <f>AVERAGE(A6:XFC6)</f>
+        <v>-46.48341232227488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:211 16384:16384" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9008</v>
+      </c>
+      <c r="B8">
+        <v>-4460</v>
+      </c>
+      <c r="C8">
+        <v>548</v>
+      </c>
+      <c r="D8">
+        <v>-1712</v>
+      </c>
+      <c r="E8">
+        <v>532</v>
+      </c>
+      <c r="F8">
+        <v>-1712</v>
+      </c>
+      <c r="G8">
+        <v>532</v>
+      </c>
+      <c r="H8">
+        <v>-576</v>
+      </c>
+      <c r="I8">
+        <v>524</v>
+      </c>
+      <c r="J8">
+        <v>-560</v>
+      </c>
+      <c r="K8">
+        <v>552</v>
+      </c>
+      <c r="L8">
+        <v>-576</v>
+      </c>
+      <c r="M8">
+        <v>528</v>
+      </c>
+      <c r="N8">
+        <v>-564</v>
+      </c>
+      <c r="O8">
+        <v>552</v>
+      </c>
+      <c r="P8">
+        <v>-1680</v>
+      </c>
+      <c r="Q8">
+        <v>556</v>
+      </c>
+      <c r="R8">
+        <v>-1712</v>
+      </c>
+      <c r="S8">
+        <v>532</v>
+      </c>
+      <c r="T8">
+        <v>-552</v>
+      </c>
+      <c r="U8">
+        <v>552</v>
+      </c>
+      <c r="V8">
+        <v>-564</v>
+      </c>
+      <c r="W8">
+        <v>544</v>
+      </c>
+      <c r="X8">
+        <v>-560</v>
+      </c>
+      <c r="Y8">
+        <v>552</v>
+      </c>
+      <c r="Z8">
+        <v>-580</v>
+      </c>
+      <c r="AA8">
+        <v>528</v>
+      </c>
+      <c r="AB8">
+        <v>-576</v>
+      </c>
+      <c r="AC8">
+        <v>528</v>
+      </c>
+      <c r="AD8">
+        <v>-580</v>
+      </c>
+      <c r="AE8">
+        <v>532</v>
+      </c>
+      <c r="AF8">
+        <v>-572</v>
+      </c>
+      <c r="AG8">
+        <v>536</v>
+      </c>
+      <c r="AH8">
+        <v>-1708</v>
+      </c>
+      <c r="AI8">
+        <v>528</v>
+      </c>
+      <c r="AJ8">
+        <v>-660</v>
+      </c>
+      <c r="AK8">
+        <v>456</v>
+      </c>
+      <c r="AL8">
+        <v>-576</v>
+      </c>
+      <c r="AM8">
+        <v>528</v>
+      </c>
+      <c r="AN8">
+        <v>-576</v>
+      </c>
+      <c r="AO8">
+        <v>528</v>
+      </c>
+      <c r="AP8">
+        <v>-580</v>
+      </c>
+      <c r="AQ8">
+        <v>528</v>
+      </c>
+      <c r="AR8">
+        <v>-584</v>
+      </c>
+      <c r="AS8">
+        <v>528</v>
+      </c>
+      <c r="AT8">
+        <v>-580</v>
+      </c>
+      <c r="AU8">
+        <v>528</v>
+      </c>
+      <c r="AV8">
+        <v>-576</v>
+      </c>
+      <c r="AW8">
+        <v>528</v>
+      </c>
+      <c r="AX8">
+        <v>-580</v>
+      </c>
+      <c r="AY8">
+        <v>528</v>
+      </c>
+      <c r="AZ8">
+        <v>-560</v>
+      </c>
+      <c r="BA8">
+        <v>552</v>
+      </c>
+      <c r="BB8">
+        <v>-580</v>
+      </c>
+      <c r="BC8">
+        <v>524</v>
+      </c>
+      <c r="BD8">
+        <v>-580</v>
+      </c>
+      <c r="BE8">
+        <v>536</v>
+      </c>
+      <c r="BF8">
+        <v>-572</v>
+      </c>
+      <c r="BG8">
+        <v>532</v>
+      </c>
+      <c r="BH8">
+        <v>-580</v>
+      </c>
+      <c r="BI8">
+        <v>528</v>
+      </c>
+      <c r="BJ8">
+        <v>-580</v>
+      </c>
+      <c r="BK8">
+        <v>524</v>
+      </c>
+      <c r="BL8">
+        <v>-588</v>
+      </c>
+      <c r="BM8">
+        <v>528</v>
+      </c>
+      <c r="BN8">
+        <v>-576</v>
+      </c>
+      <c r="BO8">
+        <v>528</v>
+      </c>
+      <c r="BP8">
+        <v>-580</v>
+      </c>
+      <c r="BQ8">
+        <v>528</v>
+      </c>
+      <c r="BR8">
+        <v>-732</v>
+      </c>
+      <c r="BS8">
+        <v>372</v>
+      </c>
+      <c r="BT8">
+        <v>-588</v>
+      </c>
+      <c r="BU8">
+        <v>528</v>
+      </c>
+      <c r="BV8">
+        <v>-652</v>
+      </c>
+      <c r="BW8">
+        <v>452</v>
+      </c>
+      <c r="BX8">
+        <v>-576</v>
+      </c>
+      <c r="BY8">
+        <v>536</v>
+      </c>
+      <c r="BZ8">
+        <v>-1708</v>
+      </c>
+      <c r="CA8">
+        <v>528</v>
+      </c>
+      <c r="CB8">
+        <v>-664</v>
+      </c>
+      <c r="CC8">
+        <v>444</v>
+      </c>
+      <c r="CD8">
+        <v>-1720</v>
+      </c>
+      <c r="CE8">
+        <v>524</v>
+      </c>
+      <c r="CF8">
+        <v>-584</v>
+      </c>
+      <c r="CG8">
+        <v>520</v>
+      </c>
+      <c r="CH8">
+        <v>-596</v>
+      </c>
+      <c r="CI8">
+        <v>520</v>
+      </c>
+      <c r="CJ8">
+        <v>-584</v>
+      </c>
+      <c r="CK8">
+        <v>520</v>
+      </c>
+      <c r="CL8">
+        <v>-588</v>
+      </c>
+      <c r="CM8">
+        <v>520</v>
+      </c>
+      <c r="CN8">
+        <v>-584</v>
+      </c>
+      <c r="CO8">
+        <v>528</v>
+      </c>
+      <c r="CP8">
+        <v>-580</v>
+      </c>
+      <c r="CQ8">
+        <v>524</v>
+      </c>
+      <c r="CR8">
+        <v>-564</v>
+      </c>
+      <c r="CS8">
+        <v>552</v>
+      </c>
+      <c r="CT8">
+        <v>-536</v>
+      </c>
+      <c r="CU8">
+        <v>568</v>
+      </c>
+      <c r="CV8">
+        <v>-556</v>
+      </c>
+      <c r="CW8">
+        <v>552</v>
+      </c>
+      <c r="CX8">
+        <v>-552</v>
+      </c>
+      <c r="CY8">
+        <v>564</v>
+      </c>
+      <c r="CZ8">
+        <v>-576</v>
+      </c>
+      <c r="DA8">
+        <v>528</v>
+      </c>
+      <c r="DB8">
+        <v>-556</v>
+      </c>
+      <c r="DC8">
+        <v>548</v>
+      </c>
+      <c r="DD8">
+        <v>-556</v>
+      </c>
+      <c r="DE8">
+        <v>576</v>
+      </c>
+      <c r="DF8">
+        <v>-1664</v>
+      </c>
+      <c r="DG8">
+        <v>580</v>
+      </c>
+      <c r="DH8">
+        <v>-528</v>
+      </c>
+      <c r="DI8">
+        <v>564</v>
+      </c>
+      <c r="DJ8">
+        <v>-552</v>
+      </c>
+      <c r="DK8">
+        <v>552</v>
+      </c>
+      <c r="DL8">
+        <v>-552</v>
+      </c>
+      <c r="DM8">
+        <v>588</v>
+      </c>
+      <c r="DN8">
+        <v>-520</v>
+      </c>
+      <c r="DO8">
+        <v>552</v>
+      </c>
+      <c r="DP8">
+        <v>-560</v>
+      </c>
+      <c r="DQ8">
+        <v>552</v>
+      </c>
+      <c r="DR8">
+        <v>-556</v>
+      </c>
+      <c r="DS8">
+        <v>584</v>
+      </c>
+      <c r="DT8">
+        <v>-524</v>
+      </c>
+      <c r="DU8">
+        <v>556</v>
+      </c>
+      <c r="DV8">
+        <v>-548</v>
+      </c>
+      <c r="DW8">
+        <v>584</v>
+      </c>
+      <c r="DX8">
+        <v>-532</v>
+      </c>
+      <c r="DY8">
+        <v>552</v>
+      </c>
+      <c r="DZ8">
+        <v>-576</v>
+      </c>
+      <c r="EA8">
+        <v>560</v>
+      </c>
+      <c r="EB8">
+        <v>-520</v>
+      </c>
+      <c r="EC8">
+        <v>588</v>
+      </c>
+      <c r="ED8">
+        <v>-528</v>
+      </c>
+      <c r="EE8">
+        <v>576</v>
+      </c>
+      <c r="EF8">
+        <v>-552</v>
+      </c>
+      <c r="EG8">
+        <v>556</v>
+      </c>
+      <c r="EH8">
+        <v>-528</v>
+      </c>
+      <c r="EI8">
+        <v>560</v>
+      </c>
+      <c r="EJ8">
+        <v>-552</v>
+      </c>
+      <c r="EK8">
+        <v>552</v>
+      </c>
+      <c r="EL8">
+        <v>-556</v>
+      </c>
+      <c r="EM8">
+        <v>584</v>
+      </c>
+      <c r="EN8">
+        <v>-520</v>
+      </c>
+      <c r="EO8">
+        <v>588</v>
+      </c>
+      <c r="EP8">
+        <v>-520</v>
+      </c>
+      <c r="EQ8">
+        <v>576</v>
+      </c>
+      <c r="ER8">
+        <v>-564</v>
+      </c>
+      <c r="ES8">
+        <v>524</v>
+      </c>
+      <c r="ET8">
+        <v>-556</v>
+      </c>
+      <c r="EU8">
+        <v>560</v>
+      </c>
+      <c r="EV8">
+        <v>-544</v>
+      </c>
+      <c r="EW8">
+        <v>560</v>
+      </c>
+      <c r="EX8">
+        <v>-544</v>
+      </c>
+      <c r="EY8">
+        <v>564</v>
+      </c>
+      <c r="EZ8">
+        <v>-552</v>
+      </c>
+      <c r="FA8">
+        <v>552</v>
+      </c>
+      <c r="FB8">
+        <v>-1692</v>
+      </c>
+      <c r="FC8">
+        <v>556</v>
+      </c>
+      <c r="FD8">
+        <v>-624</v>
+      </c>
+      <c r="FE8">
+        <v>480</v>
+      </c>
+      <c r="FF8">
+        <v>-568</v>
+      </c>
+      <c r="FG8">
+        <v>544</v>
+      </c>
+      <c r="FH8">
+        <v>-544</v>
+      </c>
+      <c r="FI8">
+        <v>560</v>
+      </c>
+      <c r="FJ8">
+        <v>-572</v>
+      </c>
+      <c r="FK8">
+        <v>536</v>
+      </c>
+      <c r="FL8">
+        <v>-572</v>
+      </c>
+      <c r="FM8">
+        <v>532</v>
+      </c>
+      <c r="FN8">
+        <v>-580</v>
+      </c>
+      <c r="FO8">
+        <v>528</v>
+      </c>
+      <c r="FP8">
+        <v>-580</v>
+      </c>
+      <c r="FQ8">
+        <v>536</v>
+      </c>
+      <c r="FR8">
+        <v>-576</v>
+      </c>
+      <c r="FS8">
+        <v>528</v>
+      </c>
+      <c r="FT8">
+        <v>-568</v>
+      </c>
+      <c r="FU8">
+        <v>536</v>
+      </c>
+      <c r="FV8">
+        <v>-580</v>
+      </c>
+      <c r="FW8">
+        <v>536</v>
+      </c>
+      <c r="FX8">
+        <v>-1704</v>
+      </c>
+      <c r="FY8">
+        <v>532</v>
+      </c>
+      <c r="FZ8">
+        <v>-576</v>
+      </c>
+      <c r="GA8">
+        <v>532</v>
+      </c>
+      <c r="GB8">
+        <v>-1712</v>
+      </c>
+      <c r="GC8">
+        <v>528</v>
+      </c>
+      <c r="GD8">
+        <v>-580</v>
+      </c>
+      <c r="GE8">
+        <v>536</v>
+      </c>
+      <c r="GF8">
+        <v>-572</v>
+      </c>
+      <c r="GG8">
+        <v>532</v>
+      </c>
+      <c r="GH8">
+        <v>-572</v>
+      </c>
+      <c r="GI8">
+        <v>536</v>
+      </c>
+      <c r="GJ8">
+        <v>-572</v>
+      </c>
+      <c r="GK8">
+        <v>532</v>
+      </c>
+      <c r="GL8">
+        <v>-580</v>
+      </c>
+      <c r="GM8">
+        <v>528</v>
+      </c>
+      <c r="GN8">
+        <v>-576</v>
+      </c>
+      <c r="GO8">
+        <v>536</v>
+      </c>
+      <c r="GP8">
+        <v>-628</v>
+      </c>
+      <c r="GQ8">
+        <v>456</v>
+      </c>
+      <c r="GR8">
+        <v>-600</v>
+      </c>
+      <c r="GS8">
+        <v>528</v>
+      </c>
+      <c r="GT8">
+        <v>-1708</v>
+      </c>
+      <c r="GU8">
+        <v>540</v>
+      </c>
+      <c r="GV8">
+        <v>-576</v>
+      </c>
+      <c r="GW8">
+        <v>528</v>
+      </c>
+      <c r="GX8">
+        <v>-1704</v>
+      </c>
+      <c r="GY8">
+        <v>540</v>
+      </c>
+      <c r="GZ8">
+        <v>-580</v>
+      </c>
+      <c r="HA8">
+        <v>524</v>
+      </c>
+      <c r="HB8">
+        <v>-580</v>
+      </c>
+      <c r="HC8">
+        <v>528</v>
+      </c>
+      <c r="XFD8">
+        <f>AVERAGE(A8:XFC8)</f>
+        <v>-62.824644549763036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:211 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" ref="A9:BL9" si="0">AVERAGE(A5:A8)</f>
+        <v>9004</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>-4446</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1698</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1702</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>-564</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>-556</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>-568</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>-562</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1684</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1698</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>-554</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>556</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>-560</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="0"/>
+        <v>-556</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>-570</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="0"/>
+        <v>538</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="0"/>
+        <v>-564</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="0"/>
+        <v>-570</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="0"/>
+        <v>-562</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1700</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="0"/>
+        <v>-606</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" si="0"/>
+        <v>-564</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AN9" s="1">
+        <f t="shared" si="0"/>
+        <v>-566</v>
+      </c>
+      <c r="AO9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AP9" s="1">
+        <f t="shared" si="0"/>
+        <v>-568</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="0"/>
+        <v>-576</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="0"/>
+        <v>-568</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="0"/>
+        <v>-576</v>
+      </c>
+      <c r="AW9" s="1">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="AX9" s="1">
+        <f t="shared" si="0"/>
+        <v>-566</v>
+      </c>
+      <c r="AY9" s="1">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="AZ9" s="1">
+        <f t="shared" si="0"/>
+        <v>-556</v>
+      </c>
+      <c r="BA9" s="1">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="BB9" s="1">
+        <f t="shared" si="0"/>
+        <v>-566</v>
+      </c>
+      <c r="BC9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="BD9" s="1">
+        <f t="shared" si="0"/>
+        <v>-566</v>
+      </c>
+      <c r="BE9" s="1">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="BF9" s="1">
+        <f t="shared" si="0"/>
+        <v>-564</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="0"/>
+        <v>-570</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="BJ9" s="1">
+        <f t="shared" si="0"/>
+        <v>-568</v>
+      </c>
+      <c r="BK9" s="1">
+        <f t="shared" si="0"/>
+        <v>538</v>
+      </c>
+      <c r="BL9" s="1">
+        <f t="shared" si="0"/>
+        <v>-570</v>
+      </c>
+      <c r="BM9" s="1">
+        <f t="shared" ref="BM9:DX9" si="1">AVERAGE(BM5:BM8)</f>
+        <v>540</v>
+      </c>
+      <c r="BN9" s="1">
+        <f t="shared" si="1"/>
+        <v>-566</v>
+      </c>
+      <c r="BO9" s="1">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="BP9" s="1">
+        <f t="shared" si="1"/>
+        <v>-562</v>
+      </c>
+      <c r="BQ9" s="1">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="BR9" s="1">
+        <f t="shared" si="1"/>
+        <v>-644</v>
+      </c>
+      <c r="BS9" s="1">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="BT9" s="1">
+        <f t="shared" si="1"/>
+        <v>-572</v>
+      </c>
+      <c r="BU9" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="BV9" s="1">
+        <f t="shared" si="1"/>
+        <v>-602</v>
+      </c>
+      <c r="BW9" s="1">
+        <f t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="BX9" s="1">
+        <f t="shared" si="1"/>
+        <v>-564</v>
+      </c>
+      <c r="BY9" s="1">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="BZ9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1698</v>
+      </c>
+      <c r="CA9" s="1">
+        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+      <c r="CB9" s="1">
+        <f t="shared" si="1"/>
+        <v>-620</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1704</v>
+      </c>
+      <c r="CE9" s="1">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="CF9" s="1">
+        <f t="shared" si="1"/>
+        <v>-570</v>
+      </c>
+      <c r="CG9" s="1">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="CH9" s="1">
+        <f t="shared" si="1"/>
+        <v>-574</v>
+      </c>
+      <c r="CI9" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="CJ9" s="1">
+        <f t="shared" si="1"/>
+        <v>-570</v>
+      </c>
+      <c r="CK9" s="1">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="CL9" s="1">
+        <f t="shared" si="1"/>
+        <v>-570</v>
+      </c>
+      <c r="CM9" s="1">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="CN9" s="1">
+        <f t="shared" si="1"/>
+        <v>-582</v>
+      </c>
+      <c r="CO9" s="1">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="CP9" s="1">
+        <f t="shared" si="1"/>
+        <v>-570</v>
+      </c>
+      <c r="CQ9" s="1">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="CR9" s="1">
+        <f t="shared" si="1"/>
+        <v>-560</v>
+      </c>
+      <c r="CS9" s="1">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="CT9" s="1">
+        <f t="shared" si="1"/>
+        <v>-544</v>
+      </c>
+      <c r="CU9" s="1">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
+      <c r="CV9" s="1">
+        <f t="shared" si="1"/>
+        <v>-554</v>
+      </c>
+      <c r="CW9" s="1">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="CX9" s="1">
+        <f t="shared" si="1"/>
+        <v>-552</v>
+      </c>
+      <c r="CY9" s="1">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="CZ9" s="1">
+        <f t="shared" si="1"/>
+        <v>-564</v>
+      </c>
+      <c r="DA9" s="1">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="DB9" s="1">
+        <f t="shared" si="1"/>
+        <v>-556</v>
+      </c>
+      <c r="DC9" s="1">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="DD9" s="1">
+        <f t="shared" si="1"/>
+        <v>-554</v>
+      </c>
+      <c r="DE9" s="1">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="DF9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1678</v>
+      </c>
+      <c r="DG9" s="1">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="DH9" s="1">
+        <f t="shared" si="1"/>
+        <v>-542</v>
+      </c>
+      <c r="DI9" s="1">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="DJ9" s="1">
+        <f t="shared" si="1"/>
+        <v>-552</v>
+      </c>
+      <c r="DK9" s="1">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="DL9" s="1">
+        <f t="shared" si="1"/>
+        <v>-552</v>
+      </c>
+      <c r="DM9" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="DN9" s="1">
+        <f t="shared" si="1"/>
+        <v>-536</v>
+      </c>
+      <c r="DO9" s="1">
+        <f t="shared" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="DP9" s="1">
+        <f t="shared" si="1"/>
+        <v>-556</v>
+      </c>
+      <c r="DQ9" s="1">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="DR9" s="1">
+        <f t="shared" si="1"/>
+        <v>-554</v>
+      </c>
+      <c r="DS9" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="DT9" s="1">
+        <f t="shared" si="1"/>
+        <v>-538</v>
+      </c>
+      <c r="DU9" s="1">
+        <f t="shared" si="1"/>
+        <v>556</v>
+      </c>
+      <c r="DV9" s="1">
+        <f t="shared" si="1"/>
+        <v>-554</v>
+      </c>
+      <c r="DW9" s="1">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="DX9" s="1">
+        <f t="shared" si="1"/>
+        <v>-542</v>
+      </c>
+      <c r="DY9" s="1">
+        <f t="shared" ref="DY9:GJ9" si="2">AVERAGE(DY5:DY8)</f>
+        <v>552</v>
+      </c>
+      <c r="DZ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-566</v>
+      </c>
+      <c r="EA9" s="1">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="EB9" s="1">
+        <f t="shared" si="2"/>
+        <v>-532</v>
+      </c>
+      <c r="EC9" s="1">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+      <c r="ED9" s="1">
+        <f t="shared" si="2"/>
+        <v>-542</v>
+      </c>
+      <c r="EE9" s="1">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="EF9" s="1">
+        <f t="shared" si="2"/>
+        <v>-552</v>
+      </c>
+      <c r="EG9" s="1">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="EH9" s="1">
+        <f t="shared" si="2"/>
+        <v>-542</v>
+      </c>
+      <c r="EI9" s="1">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="EJ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-556</v>
+      </c>
+      <c r="EK9" s="1">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="EL9" s="1">
+        <f t="shared" si="2"/>
+        <v>-554</v>
+      </c>
+      <c r="EM9" s="1">
+        <f t="shared" si="2"/>
+        <v>568</v>
+      </c>
+      <c r="EN9" s="1">
+        <f t="shared" si="2"/>
+        <v>-536</v>
+      </c>
+      <c r="EO9" s="1">
+        <f t="shared" si="2"/>
+        <v>572</v>
+      </c>
+      <c r="EP9" s="1">
+        <f t="shared" si="2"/>
+        <v>-536</v>
+      </c>
+      <c r="EQ9" s="1">
+        <f t="shared" si="2"/>
+        <v>566</v>
+      </c>
+      <c r="ER9" s="1">
+        <f t="shared" si="2"/>
+        <v>-558</v>
+      </c>
+      <c r="ES9" s="1">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="ET9" s="1">
+        <f t="shared" si="2"/>
+        <v>-558</v>
+      </c>
+      <c r="EU9" s="1">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="EV9" s="1">
+        <f t="shared" si="2"/>
+        <v>-550</v>
+      </c>
+      <c r="EW9" s="1">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="EX9" s="1">
+        <f t="shared" si="2"/>
+        <v>-548</v>
+      </c>
+      <c r="EY9" s="1">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="EZ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-554</v>
+      </c>
+      <c r="FA9" s="1">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="FB9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1688</v>
+      </c>
+      <c r="FC9" s="1">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="FD9" s="1">
+        <f t="shared" si="2"/>
+        <v>-588</v>
+      </c>
+      <c r="FE9" s="1">
+        <f t="shared" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="FF9" s="1">
+        <f t="shared" si="2"/>
+        <v>-564</v>
+      </c>
+      <c r="FG9" s="1">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="FH9" s="1">
+        <f t="shared" si="2"/>
+        <v>-548</v>
+      </c>
+      <c r="FI9" s="1">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="FJ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-562</v>
+      </c>
+      <c r="FK9" s="1">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="FL9" s="1">
+        <f t="shared" si="2"/>
+        <v>-564</v>
+      </c>
+      <c r="FM9" s="1">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="FN9" s="1">
+        <f t="shared" si="2"/>
+        <v>-570</v>
+      </c>
+      <c r="FO9" s="1">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="FP9" s="1">
+        <f t="shared" si="2"/>
+        <v>-566</v>
+      </c>
+      <c r="FQ9" s="1">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="FR9" s="1">
+        <f t="shared" si="2"/>
+        <v>-564</v>
+      </c>
+      <c r="FS9" s="1">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="FT9" s="1">
+        <f t="shared" si="2"/>
+        <v>-562</v>
+      </c>
+      <c r="FU9" s="1">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="FV9" s="1">
+        <f t="shared" si="2"/>
+        <v>-562</v>
+      </c>
+      <c r="FW9" s="1">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="FX9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1694</v>
+      </c>
+      <c r="FY9" s="1">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="FZ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-564</v>
+      </c>
+      <c r="GA9" s="1">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="GB9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1700</v>
+      </c>
+      <c r="GC9" s="1">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="GD9" s="1">
+        <f t="shared" si="2"/>
+        <v>-566</v>
+      </c>
+      <c r="GE9" s="1">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="GF9" s="1">
+        <f t="shared" si="2"/>
+        <v>-562</v>
+      </c>
+      <c r="GG9" s="1">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="GH9" s="1">
+        <f t="shared" si="2"/>
+        <v>-562</v>
+      </c>
+      <c r="GI9" s="1">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="GJ9" s="1">
+        <f t="shared" si="2"/>
+        <v>-576</v>
+      </c>
+      <c r="GK9" s="1">
+        <f t="shared" ref="GK9:IV9" si="3">AVERAGE(GK5:GK8)</f>
+        <v>534</v>
+      </c>
+      <c r="GL9" s="1">
+        <f t="shared" si="3"/>
+        <v>-568</v>
+      </c>
+      <c r="GM9" s="1">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="GN9" s="1">
+        <f t="shared" si="3"/>
+        <v>-564</v>
+      </c>
+      <c r="GO9" s="1">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+      <c r="GP9" s="1">
+        <f t="shared" si="3"/>
+        <v>-592</v>
+      </c>
+      <c r="GQ9" s="1">
+        <f t="shared" si="3"/>
+        <v>504</v>
+      </c>
+      <c r="GR9" s="1">
+        <f t="shared" si="3"/>
+        <v>-576</v>
+      </c>
+      <c r="GS9" s="1">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+      <c r="GT9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1694</v>
+      </c>
+      <c r="GU9" s="1">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
+      <c r="GV9" s="1">
+        <f t="shared" si="3"/>
+        <v>-564</v>
+      </c>
+      <c r="GW9" s="1">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="GX9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1708</v>
+      </c>
+      <c r="GY9" s="1">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="GZ9" s="1">
+        <f t="shared" si="3"/>
+        <v>-566</v>
+      </c>
+      <c r="HA9" s="1">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="HB9" s="1">
+        <f t="shared" si="3"/>
+        <v>-566</v>
+      </c>
+      <c r="HC9" s="1">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>